--- a/template_tom/dcap_template.xlsx
+++ b/template_tom/dcap_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbaker/Dropbox/ff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbaker/github/dcmi/dcap/template_tom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EA7E0E-8BF7-7D40-AB7A-9AEB54F2AAE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2824F5B0-D6AC-2D47-AA03-71EC45890DF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="27720" windowHeight="17040" xr2:uid="{16BE8492-A386-ED43-8C5F-78400B7A4B6C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Profile" sheetId="1" r:id="rId1"/>
     <sheet name="Vocabs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Entity Description Template</t>
   </si>
@@ -40,21 +40,12 @@
     <t>Statement Template</t>
   </si>
   <si>
-    <t>Value constraints</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
     <t>Property Constraints</t>
   </si>
   <si>
-    <t xml:space="preserve">Min </t>
-  </si>
-  <si>
-    <t>Property URI</t>
-  </si>
-  <si>
     <t>String Language</t>
   </si>
   <si>
@@ -95,6 +86,45 @@
   </si>
   <si>
     <t>Value String</t>
+  </si>
+  <si>
+    <t>Prefixed Property URI</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>Cardinality</t>
+  </si>
+  <si>
+    <t>Value Constraints</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>foaf:name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>foaf:homepage</t>
   </si>
 </sst>
 </file>
@@ -130,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -180,19 +210,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="slantDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="slantDashDot">
         <color auto="1"/>
@@ -234,6 +251,162 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -241,40 +414,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,96 +773,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947B4FB8-BB64-F748-AD8B-13CD7D1702DB}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="15" customWidth="1"/>
-    <col min="7" max="7" width="11" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="3" customWidth="1"/>
-    <col min="10" max="11" width="7.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="9.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="3"/>
+    <col min="13" max="13" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="20"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="32" customHeight="1" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="34" customHeight="1" thickBot="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="16" t="s">
+      <c r="K3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" ht="34" customHeight="1" thickBot="1">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="30">
+        <v>1</v>
+      </c>
+      <c r="M4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="E7" s="4"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="E8" s="4"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" s="4"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" s="4"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="4"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="4"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13" s="4"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="E14" s="4"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="E15" s="4"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="E16" s="4"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" s="4"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" s="4"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="E19" s="4"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="E20" s="4"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="5:11">
+      <c r="E21" s="4"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="E22" s="4"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="E23" s="4"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="E24" s="4"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="E25" s="4"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="E26" s="4"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="E27" s="4"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="E28" s="4"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="5:11">
+      <c r="E29" s="4"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="E30" s="4"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="E31" s="4"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="5:11">
+      <c r="E32" s="4"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="5:11">
+      <c r="E33" s="4"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="5:11">
+      <c r="E34" s="4"/>
+      <c r="K34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -688,7 +1075,7 @@
           <x14:formula1>
             <xm:f>Vocabs!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G49</xm:sqref>
+          <xm:sqref>G6:G50 E4:E25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -701,34 +1088,34 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
